--- a/data/long_razon/P23_6-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_6-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-24,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-40,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-19,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-68,23; 57,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-79,81; 63,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-52,09; 85,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-47,07; 96,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,27; 40,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,47; 36,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>49,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-26,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-47,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 190,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 310,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,67; 36,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,42; 4,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,5; 63,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,91; 122,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-24,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-50,52; 79,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 51,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-49,87; 12,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 76,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,9; 28,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 45,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-32,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>68,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,59; 0,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,99; 69,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 152,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,21; 27,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 42,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 27,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-31,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-11,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-22,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-27,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-58,84; 24,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 39,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-51,25; 30,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 127,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,78; 4,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 58,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-34,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-22,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,7; 89,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 69,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,78; 11,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 124,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 14,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 64,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-12,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 12,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 29,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 10,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 32,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 2,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 22,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P23_6-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_6-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.2546509270144619</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.26503838172212</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1131486621809882</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.3184181791747926</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.003667533374018432</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.01007283850719713</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.01702169511643254</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.1159689885529609</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.1266900233618947</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.1325464281921591</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.03890919719469337</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.1445132189736888</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.6747773768580023</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.7212666485944502</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.7231501576964959</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7552668074723234</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4706417782349843</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.51214605234002</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.4960248003867039</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4948928743211095</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.454601386939656</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.4965509755321783</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.4722979910538854</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.5531090213683673</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.682240608490832</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.043012991917127</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.880558107933147</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.8123000573639323</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.9371981017291539</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.8454352961376638</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.9311350027557306</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.532632617282128</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.4129288133029356</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.5376641083493238</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.7000928967281238</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.5043824858133777</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.3007181138140648</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.359432726675097</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.564297015060835</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.215469841881214</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.3300716953113545</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.4680271425202991</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.4051941658006856</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.4582662494585794</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.04170688053093084</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.02357816386944513</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.9469987798251828</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.3319738412373925</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.3876485103953458</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4480448759046528</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.02828737767343001</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.5661786923888396</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.6147706285828974</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.739877295446755</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.310768907186436</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1874839272470675</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.4074329272080797</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.4848116345667577</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.1359231092341378</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.2724968604580939</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>1.835093558638522</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.78035777995052</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.437219133768659</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.390721300285367</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3209738301928239</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.08932019948374961</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.874803445429806</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>2.043279604545401</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.7219773270125256</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.04436596092512</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>2.896579116721042</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.407980831123546</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.02912808755207567</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.100183064621846</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.09010698694814119</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.505162151989043</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.2469670511530414</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1962343609864534</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.04945018624088286</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1447349957875737</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.1158754946600784</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.03769995922338408</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.06908041908689472</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.3321657374651768</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.469669855120861</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.461050608474948</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.499934265965398</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1787813945419657</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.498838752074778</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.1960690567448084</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3486911576923446</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.338909386650391</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3816869743876596</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2474255544770517</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3019019898022378</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.08748019204435759</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.154237187148784</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.5075141231075535</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.929076576710637</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.69704770033097</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.1508700471089534</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.7122640624743397</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.6462988167278677</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.9922421492368412</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.3547387723540475</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.4816937438310943</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.5409311441406011</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.9359365253767282</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.2859926769566019</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.09052100538148235</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3652570713103798</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2798912521089873</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.6645138372840094</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.07600845238882376</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.1460397138719484</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.640904979472528</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.1278581425455304</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.01130394720211535</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.2511721020346092</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.1929207534642707</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.5673626328793573</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3475180746431945</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1689802448647117</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1469829511273335</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1405750995894936</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.3092088922717547</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2262461793646268</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.8097466558504374</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1678676257293788</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.2424931456293952</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.07494915032937541</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.4288990790933532</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.1120770138225586</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.7409081054102337</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.515660807894363</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.094458346307498</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.423427249664666</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2611647514787427</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.6778973061689542</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.3483450961247855</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.4881126797773583</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.2679455686983411</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.8172982732435827</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.1998364657553928</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.3071469137056488</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.1239454871606117</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.2175248146793168</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.05267569053381568</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.1709318054013458</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.4180654499855945</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.4768046803261129</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>1.168099367799962</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.2462121799165271</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.1246705468846638</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.3452833901146626</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.4788388680107195</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.5860702139718731</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.4822537483842531</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.321199550895419</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.4701645620263128</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.4863236181938129</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.0949298249791313</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.08419899377086802</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>0.2846515762873124</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.4754972576670846</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.1916238001755936</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.09157859485526483</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0.008599810542353516</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.3039737480833961</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.3808592219551191</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.183968437804261</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.708699208186592</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.3521723535009868</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1.283084320904367</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.608913445958168</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>2.597579141335681</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.1410729031893893</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.5665138578214981</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.8883563369274512</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1.186763485192975</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.02955218642702028</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.1329604923832716</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.3231767396153165</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.1942039049466588</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.3070331975878385</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.276102877790448</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.9966961040574168</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.1111946753909462</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.1839920633078794</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.07680790063625272</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.6566010167056732</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>-0.01095618480556397</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.5023314454237979</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.5198116820243023</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.3422652239589612</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.5378556753817606</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.5857415620006128</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.2173172375515253</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>0.04727159330235983</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.737431845116911</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.4581626208119987</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.2701110915932909</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>0.07114668155759168</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.5504413495184789</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>1.04924719380079</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.4852189641502604</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1.812501489286224</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2.679818684502747</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.1783868346575392</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1.071532728207953</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>2.965644330263803</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.108292693868672</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.2074430053938349</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.5275466684610957</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>1.537533896457863</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.8843950053360191</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.1060310860258034</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.03207330296187306</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3323562002274656</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1382105713026063</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.08654807139494107</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.06795107649103141</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.3156938722292035</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.05388313023073145</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.09598284697507541</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.01916154717723382</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.3236909672615337</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.09622392878522937</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.3151302890331857</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.2442856732011524</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.01513895599111793</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.1608498690868832</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.2509040070556444</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.110967191944578</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.07364853668318125</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.1876947499765392</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.2269821715460851</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.1299197976118898</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.115171279298863</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.1176336981079786</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.1730268217592706</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.296231545050954</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.8949991563858611</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5334751025177498</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.109373100683942</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.2877990830685797</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.62804527344564</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.3825495543538492</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.07792121523309613</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.1919714602916129</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.6045902143588724</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.3136489665944529</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
